--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11364" windowHeight="6744"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="6750"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -356,7 +351,7 @@
       <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -518,154 +513,154 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.382343915496223</v>
+        <v>13.382343916273278</v>
       </c>
       <c r="C2">
-        <v>14.965141316978499</v>
+        <v>14.965141316982134</v>
       </c>
       <c r="D2">
-        <v>13.327035775541651</v>
+        <v>13.32703577266518</v>
       </c>
       <c r="E2">
-        <v>15.709097389424484</v>
+        <v>15.709097387352166</v>
       </c>
       <c r="F2">
-        <v>10.528271002845521</v>
+        <v>10.528270999153172</v>
       </c>
       <c r="G2">
-        <v>12.936771031610759</v>
+        <v>12.936771030623905</v>
       </c>
       <c r="H2">
-        <v>10.385655018435905</v>
+        <v>10.38565501713911</v>
       </c>
       <c r="I2">
-        <v>11.787240352731775</v>
+        <v>11.787240352110242</v>
       </c>
       <c r="J2">
-        <v>15.042381590841996</v>
+        <v>15.042381588620806</v>
       </c>
       <c r="K2">
-        <v>12.023294570959441</v>
+        <v>12.023294568646239</v>
       </c>
       <c r="L2">
-        <v>11.215830144578151</v>
+        <v>11.215830145300192</v>
       </c>
       <c r="M2">
-        <v>13.591152205938114</v>
+        <v>13.591152206516185</v>
       </c>
       <c r="N2">
-        <v>12.574683131631629</v>
+        <v>12.574683131430586</v>
       </c>
       <c r="O2">
-        <v>11.27668585323741</v>
+        <v>11.27668584925304</v>
       </c>
       <c r="P2">
-        <v>13.172255391954609</v>
+        <v>13.172255392205981</v>
       </c>
       <c r="Q2">
-        <v>12.189105205807859</v>
+        <v>12.189105204749829</v>
       </c>
       <c r="R2">
-        <v>10.937389322123231</v>
+        <v>10.937389317996539</v>
       </c>
       <c r="S2">
-        <v>16.711941042047687</v>
+        <v>16.71194104534883</v>
       </c>
       <c r="T2">
-        <v>12.585621698046076</v>
+        <v>12.585621699573585</v>
       </c>
       <c r="U2">
-        <v>14.316489241356129</v>
+        <v>14.316489236365049</v>
       </c>
       <c r="V2">
-        <v>9.649222832111402</v>
+        <v>9.6492228293181022</v>
       </c>
       <c r="W2">
-        <v>8.7039434587518638</v>
+        <v>8.7039434569730059</v>
       </c>
       <c r="X2">
-        <v>13.568151049461207</v>
+        <v>13.568151049124266</v>
       </c>
       <c r="Y2">
-        <v>14.760398119036285</v>
+        <v>14.760398114975576</v>
       </c>
       <c r="Z2">
-        <v>14.375803184019228</v>
+        <v>14.375803179158428</v>
       </c>
       <c r="AA2">
-        <v>14.460432539432864</v>
+        <v>14.460432535801226</v>
       </c>
       <c r="AB2">
-        <v>15.812359981668159</v>
+        <v>15.812359975160687</v>
       </c>
       <c r="AC2">
-        <v>12.666804694960279</v>
+        <v>12.666804691908181</v>
       </c>
       <c r="AD2">
-        <v>16.112945089564654</v>
+        <v>16.112945081685769</v>
       </c>
       <c r="AE2">
-        <v>12.014900579035352</v>
+        <v>12.014900575420464</v>
       </c>
       <c r="AF2">
-        <v>13.267384302042709</v>
+        <v>13.267384298903091</v>
       </c>
       <c r="AG2">
-        <v>11.135246442686613</v>
+        <v>11.135246439217992</v>
       </c>
       <c r="AH2">
-        <v>11.98777910887984</v>
+        <v>11.987779105589988</v>
       </c>
       <c r="AI2">
-        <v>16.533330367154818</v>
+        <v>16.533330361466927</v>
       </c>
       <c r="AJ2">
-        <v>11.719440025840559</v>
+        <v>11.719440023043092</v>
       </c>
       <c r="AK2">
-        <v>11.934324944954671</v>
+        <v>11.934324941959424</v>
       </c>
       <c r="AL2">
-        <v>14.390048007658809</v>
+        <v>14.390048004826749</v>
       </c>
       <c r="AM2">
-        <v>12.182262791015573</v>
+        <v>12.182262788502646</v>
       </c>
       <c r="AN2">
-        <v>12.296540648264715</v>
+        <v>12.296540643036979</v>
       </c>
       <c r="AO2">
-        <v>14.248612766930629</v>
+        <v>14.248612764906301</v>
       </c>
       <c r="AP2">
-        <v>12.868614427750105</v>
+        <v>12.868614423054986</v>
       </c>
       <c r="AQ2">
-        <v>11.148224684648179</v>
+        <v>11.148224681782706</v>
       </c>
       <c r="AR2">
-        <v>16.689327715174549</v>
+        <v>16.689327713182433</v>
       </c>
       <c r="AS2">
-        <v>12.766718120190443</v>
+        <v>12.766718116044123</v>
       </c>
       <c r="AT2">
-        <v>16.349212323266091</v>
+        <v>16.349212318982524</v>
       </c>
       <c r="AU2">
-        <v>11.202157805213268</v>
+        <v>11.202157799574804</v>
       </c>
       <c r="AV2">
-        <v>10.161429605423681</v>
+        <v>10.161429600082462</v>
       </c>
       <c r="AW2">
-        <v>13.000673699232667</v>
+        <v>13.000673694653688</v>
       </c>
       <c r="AX2">
-        <v>16.002547904653337</v>
+        <v>16.002547898888984</v>
       </c>
       <c r="AY2">
-        <v>15.658898594814854</v>
+        <v>15.658898590216236</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -673,154 +668,154 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.784197586856022</v>
+        <v>13.784197584660243</v>
       </c>
       <c r="C3">
-        <v>12.895955938439565</v>
+        <v>12.895955934322803</v>
       </c>
       <c r="D3">
-        <v>15.047126372982669</v>
+        <v>15.04712636546977</v>
       </c>
       <c r="E3">
-        <v>14.485611157842987</v>
+        <v>14.485611153915762</v>
       </c>
       <c r="F3">
-        <v>9.8970302451594439</v>
+        <v>9.8970302419636162</v>
       </c>
       <c r="G3">
-        <v>13.709010083003564</v>
+        <v>13.709010080971797</v>
       </c>
       <c r="H3">
-        <v>9.8596440884444636</v>
+        <v>9.8596440865734873</v>
       </c>
       <c r="I3">
-        <v>12.471057506434416</v>
+        <v>12.471057504762557</v>
       </c>
       <c r="J3">
-        <v>15.889689163638248</v>
+        <v>15.889689162397765</v>
       </c>
       <c r="K3">
-        <v>14.357589445218846</v>
+        <v>14.357589445067509</v>
       </c>
       <c r="L3">
-        <v>12.034098183725085</v>
+        <v>12.034098181432022</v>
       </c>
       <c r="M3">
-        <v>14.137950058964805</v>
+        <v>14.13790096157171</v>
       </c>
       <c r="N3">
-        <v>12.405401491209576</v>
+        <v>12.405401488311036</v>
       </c>
       <c r="O3">
-        <v>9.4029068075526681</v>
+        <v>9.4029068059587058</v>
       </c>
       <c r="P3">
-        <v>13.472374030864625</v>
+        <v>13.472374024533773</v>
       </c>
       <c r="Q3">
-        <v>10.640181725264048</v>
+        <v>10.640181724210528</v>
       </c>
       <c r="R3">
-        <v>9.0502272265669124</v>
+        <v>9.050227224310861</v>
       </c>
       <c r="S3">
-        <v>14.839695535497569</v>
+        <v>14.839695534691181</v>
       </c>
       <c r="T3">
-        <v>12.748559459843719</v>
+        <v>12.748559456872185</v>
       </c>
       <c r="U3">
-        <v>15.259103050483318</v>
+        <v>15.259103047539991</v>
       </c>
       <c r="V3">
-        <v>10.92755440339848</v>
+        <v>10.927554401452062</v>
       </c>
       <c r="W3">
-        <v>10.179470695956462</v>
+        <v>10.179470693816654</v>
       </c>
       <c r="X3">
-        <v>12.183975712757027</v>
+        <v>12.183975710250774</v>
       </c>
       <c r="Y3">
-        <v>17.037616944335308</v>
+        <v>17.037616938322383</v>
       </c>
       <c r="Z3">
-        <v>15.421240677723272</v>
+        <v>15.421240672340847</v>
       </c>
       <c r="AA3">
-        <v>14.221666494575688</v>
+        <v>14.221666490623392</v>
       </c>
       <c r="AB3">
-        <v>14.664271914964685</v>
+        <v>14.664271909427038</v>
       </c>
       <c r="AC3">
-        <v>15.10118254470598</v>
+        <v>15.101182541706912</v>
       </c>
       <c r="AD3">
-        <v>16.64666166975638</v>
+        <v>16.646661665495682</v>
       </c>
       <c r="AE3">
-        <v>12.179105113778736</v>
+        <v>12.179105111916904</v>
       </c>
       <c r="AF3">
-        <v>14.223597369058821</v>
+        <v>14.223597364997897</v>
       </c>
       <c r="AG3">
-        <v>11.460631834687485</v>
+        <v>11.460631832293121</v>
       </c>
       <c r="AH3">
-        <v>13.698884027417623</v>
+        <v>13.698884024533292</v>
       </c>
       <c r="AI3">
-        <v>20.572640945717396</v>
+        <v>20.572640939953107</v>
       </c>
       <c r="AJ3">
-        <v>12.905351102571954</v>
+        <v>12.905351100845133</v>
       </c>
       <c r="AK3">
-        <v>13.561735927727698</v>
+        <v>13.561735922649371</v>
       </c>
       <c r="AL3">
-        <v>13.904572540725876</v>
+        <v>13.904572535677978</v>
       </c>
       <c r="AM3">
-        <v>13.123817138888233</v>
+        <v>13.123817133311299</v>
       </c>
       <c r="AN3">
-        <v>10.504961564811754</v>
+        <v>10.50496156225214</v>
       </c>
       <c r="AO3">
-        <v>14.683423202966015</v>
+        <v>14.683423193260417</v>
       </c>
       <c r="AP3">
-        <v>10.803339023163888</v>
+        <v>10.80333901958265</v>
       </c>
       <c r="AQ3">
-        <v>10.42912485464208</v>
+        <v>10.429124849362351</v>
       </c>
       <c r="AR3">
-        <v>17.211861514112066</v>
+        <v>17.211861511287406</v>
       </c>
       <c r="AS3">
-        <v>11.874937008807931</v>
+        <v>11.874937005951807</v>
       </c>
       <c r="AT3">
-        <v>15.502217799088791</v>
+        <v>15.502217792380801</v>
       </c>
       <c r="AU3">
-        <v>10.706825221606106</v>
+        <v>10.706825221420557</v>
       </c>
       <c r="AV3">
-        <v>10.258976616793346</v>
+        <v>10.25897661257795</v>
       </c>
       <c r="AW3">
-        <v>12.925312777810872</v>
+        <v>12.925312773612168</v>
       </c>
       <c r="AX3">
-        <v>14.448115128931066</v>
+        <v>14.448115125150998</v>
       </c>
       <c r="AY3">
-        <v>17.401361826685488</v>
+        <v>17.401361819903006</v>
       </c>
     </row>
   </sheetData>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
@@ -19,15 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>Subj</t>
-  </si>
-  <si>
-    <t>CON</t>
-  </si>
-  <si>
-    <t>STR</t>
   </si>
 </sst>
 </file>
@@ -357,57 +351,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
-        <v>1</v>
-      </c>
-      <c r="C1">
-        <v>2</v>
-      </c>
-      <c r="D1">
-        <v>3</v>
-      </c>
-      <c r="E1">
-        <v>4</v>
-      </c>
-      <c r="F1">
-        <v>5</v>
-      </c>
-      <c r="G1">
-        <v>6</v>
-      </c>
-      <c r="H1">
-        <v>7</v>
-      </c>
-      <c r="I1">
-        <v>8</v>
-      </c>
-      <c r="J1">
-        <v>9</v>
-      </c>
-      <c r="K1">
-        <v>10</v>
-      </c>
-      <c r="L1">
-        <v>11</v>
-      </c>
-      <c r="M1">
-        <v>13</v>
-      </c>
-      <c r="N1">
-        <v>15</v>
-      </c>
-      <c r="O1">
-        <v>16</v>
-      </c>
-      <c r="P1">
-        <v>18</v>
-      </c>
-      <c r="Q1">
-        <v>19</v>
-      </c>
-      <c r="R1">
-        <v>20</v>
-      </c>
       <c r="S1">
         <v>21</v>
       </c>
@@ -432,57 +375,6 @@
       <c r="Z1">
         <v>31</v>
       </c>
-      <c r="AA1">
-        <v>1</v>
-      </c>
-      <c r="AB1">
-        <v>2</v>
-      </c>
-      <c r="AC1">
-        <v>3</v>
-      </c>
-      <c r="AD1">
-        <v>4</v>
-      </c>
-      <c r="AE1">
-        <v>5</v>
-      </c>
-      <c r="AF1">
-        <v>6</v>
-      </c>
-      <c r="AG1">
-        <v>7</v>
-      </c>
-      <c r="AH1">
-        <v>8</v>
-      </c>
-      <c r="AI1">
-        <v>9</v>
-      </c>
-      <c r="AJ1">
-        <v>10</v>
-      </c>
-      <c r="AK1">
-        <v>11</v>
-      </c>
-      <c r="AL1">
-        <v>13</v>
-      </c>
-      <c r="AM1">
-        <v>15</v>
-      </c>
-      <c r="AN1">
-        <v>16</v>
-      </c>
-      <c r="AO1">
-        <v>18</v>
-      </c>
-      <c r="AP1">
-        <v>19</v>
-      </c>
-      <c r="AQ1">
-        <v>20</v>
-      </c>
       <c r="AR1">
         <v>21</v>
       </c>
@@ -509,62 +401,59 @@
       </c>
     </row>
     <row r="2" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
       <c r="B2">
-        <v>13.382343916273278</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>14.965141316982134</v>
+        <v>0</v>
       </c>
       <c r="D2">
-        <v>13.32703577266518</v>
+        <v>0</v>
       </c>
       <c r="E2">
-        <v>15.709097387352166</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>10.528270999153172</v>
+        <v>0</v>
       </c>
       <c r="G2">
-        <v>12.936771030623905</v>
+        <v>0</v>
       </c>
       <c r="H2">
-        <v>10.38565501713911</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>11.787240352110242</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>15.042381588620806</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>12.023294568646239</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>11.215830145300192</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>13.591152206516185</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.574683131430586</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>11.27668584925304</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>13.172255392205981</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>12.189105204749829</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>10.937389317996539</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>16.71194104534883</v>
+        <v>15.398815447084763</v>
       </c>
       <c r="T2">
         <v>12.585621699573585</v>
@@ -588,55 +477,55 @@
         <v>14.375803179158428</v>
       </c>
       <c r="AA2">
-        <v>14.460432535801226</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>15.812359975160687</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>12.666804691908181</v>
+        <v>0</v>
       </c>
       <c r="AD2">
-        <v>16.112945081685769</v>
+        <v>0</v>
       </c>
       <c r="AE2">
-        <v>12.014900575420464</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>13.267384298903091</v>
+        <v>0</v>
       </c>
       <c r="AG2">
-        <v>11.135246439217992</v>
+        <v>0</v>
       </c>
       <c r="AH2">
-        <v>11.987779105589988</v>
+        <v>0</v>
       </c>
       <c r="AI2">
-        <v>16.533330361466927</v>
+        <v>0</v>
       </c>
       <c r="AJ2">
-        <v>11.719440023043092</v>
+        <v>0</v>
       </c>
       <c r="AK2">
-        <v>11.934324941959424</v>
+        <v>0</v>
       </c>
       <c r="AL2">
-        <v>14.390048004826749</v>
+        <v>0</v>
       </c>
       <c r="AM2">
-        <v>12.182262788502646</v>
+        <v>0</v>
       </c>
       <c r="AN2">
-        <v>12.296540643036979</v>
+        <v>0</v>
       </c>
       <c r="AO2">
-        <v>14.248612764906301</v>
+        <v>0</v>
       </c>
       <c r="AP2">
-        <v>12.868614423054986</v>
+        <v>0</v>
       </c>
       <c r="AQ2">
-        <v>11.148224681782706</v>
+        <v>0</v>
       </c>
       <c r="AR2">
         <v>16.689327713182433</v>
@@ -664,59 +553,56 @@
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
       <c r="B3">
-        <v>13.784197584660243</v>
+        <v>0</v>
       </c>
       <c r="C3">
-        <v>12.895955934322803</v>
+        <v>0</v>
       </c>
       <c r="D3">
-        <v>15.04712636546977</v>
+        <v>0</v>
       </c>
       <c r="E3">
-        <v>14.485611153915762</v>
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>9.8970302419636162</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>13.709010080971797</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>9.8596440865734873</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>12.471057504762557</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>15.889689162397765</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>14.357589445067509</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>12.034098181432022</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.13790096157171</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.405401488311036</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.4029068059587058</v>
+        <v>0</v>
       </c>
       <c r="P3">
-        <v>13.472374024533773</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>10.640181724210528</v>
+        <v>0</v>
       </c>
       <c r="R3">
-        <v>9.050227224310861</v>
+        <v>0</v>
       </c>
       <c r="S3">
         <v>14.839695534691181</v>
@@ -743,55 +629,55 @@
         <v>15.421240672340847</v>
       </c>
       <c r="AA3">
-        <v>14.221666490623392</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>14.664271909427038</v>
+        <v>0</v>
       </c>
       <c r="AC3">
-        <v>15.101182541706912</v>
+        <v>0</v>
       </c>
       <c r="AD3">
-        <v>16.646661665495682</v>
+        <v>0</v>
       </c>
       <c r="AE3">
-        <v>12.179105111916904</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>14.223597364997897</v>
+        <v>0</v>
       </c>
       <c r="AG3">
-        <v>11.460631832293121</v>
+        <v>0</v>
       </c>
       <c r="AH3">
-        <v>13.698884024533292</v>
+        <v>0</v>
       </c>
       <c r="AI3">
-        <v>20.572640939953107</v>
+        <v>0</v>
       </c>
       <c r="AJ3">
-        <v>12.905351100845133</v>
+        <v>0</v>
       </c>
       <c r="AK3">
-        <v>13.561735922649371</v>
+        <v>0</v>
       </c>
       <c r="AL3">
-        <v>13.904572535677978</v>
+        <v>0</v>
       </c>
       <c r="AM3">
-        <v>13.123817133311299</v>
+        <v>0</v>
       </c>
       <c r="AN3">
-        <v>10.50496156225214</v>
+        <v>0</v>
       </c>
       <c r="AO3">
-        <v>14.683423193260417</v>
+        <v>0</v>
       </c>
       <c r="AP3">
-        <v>10.80333901958265</v>
+        <v>0</v>
       </c>
       <c r="AQ3">
-        <v>10.429124849362351</v>
+        <v>0</v>
       </c>
       <c r="AR3">
         <v>17.211861511287406</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9024"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.382343915496223</v>
+        <v>11.27668584925304</v>
       </c>
       <c r="C2">
-        <v>14.312228565044508</v>
+        <v>10.937389317996539</v>
       </c>
       <c r="D2">
-        <v>13.327035775541651</v>
+        <v>12.296540643036979</v>
       </c>
       <c r="E2">
-        <v>15.709097389424484</v>
+        <v>11.148224681782706</v>
       </c>
       <c r="F2">
         <v>10.528271002845521</v>
@@ -673,16 +668,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.784197586856022</v>
+        <v>10.67466473685695</v>
       </c>
       <c r="C3">
-        <v>12.895955938439565</v>
+        <v>9.050227224310861</v>
       </c>
       <c r="D3">
-        <v>15.047126372982669</v>
+        <v>10.630007628015582</v>
       </c>
       <c r="E3">
-        <v>14.485611157842987</v>
+        <v>10.856173603842553</v>
       </c>
       <c r="F3">
         <v>9.8970302451594439</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\My Documents\MATLAB\tend_stiff_2\data_output\prism_passive\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9036"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9030"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -342,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -353,26 +348,26 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:AY3"/>
+      <selection activeCell="B1" sqref="B1:E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:51" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="D1">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="E1">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -518,16 +513,16 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>13.382343915496223</v>
+        <v>12.307962129356422</v>
       </c>
       <c r="C2">
-        <v>14.312228565044508</v>
+        <v>11.27668584925304</v>
       </c>
       <c r="D2">
-        <v>13.327035775541651</v>
+        <v>12.182262788502646</v>
       </c>
       <c r="E2">
-        <v>15.709097389424484</v>
+        <v>12.296540643036979</v>
       </c>
       <c r="F2">
         <v>10.528271002845521</v>
@@ -670,16 +665,16 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>13.784197586856022</v>
+        <v>12.405401488311036</v>
       </c>
       <c r="C3">
-        <v>12.895955938439565</v>
+        <v>10.67466473685695</v>
       </c>
       <c r="D3">
-        <v>15.047126372982669</v>
+        <v>13.123817133311299</v>
       </c>
       <c r="E3">
-        <v>16.055157500038035</v>
+        <v>10.630007628015582</v>
       </c>
       <c r="F3">
         <v>9.8970302451594439</v>

--- a/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_norm_length_msc_GM_Fuku_common_max.xlsx
@@ -348,7 +348,7 @@
   <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -358,16 +358,16 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C1">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D1">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="E1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="F1">
         <v>5</v>
@@ -513,151 +513,151 @@
         <v>1</v>
       </c>
       <c r="B2">
+        <v>13.382343916273278</v>
+      </c>
+      <c r="C2">
+        <v>14.312228563532395</v>
+      </c>
+      <c r="D2">
+        <v>13.32703577266518</v>
+      </c>
+      <c r="E2">
+        <v>15.709097387352166</v>
+      </c>
+      <c r="F2">
+        <v>10.528270999153172</v>
+      </c>
+      <c r="G2">
+        <v>13.603799580150818</v>
+      </c>
+      <c r="H2">
+        <v>10.38565501713911</v>
+      </c>
+      <c r="I2">
+        <v>12.488885836058259</v>
+      </c>
+      <c r="J2">
+        <v>15.042381588620806</v>
+      </c>
+      <c r="K2">
+        <v>12.023294568646239</v>
+      </c>
+      <c r="L2">
+        <v>11.081158774427271</v>
+      </c>
+      <c r="M2">
+        <v>14.940421520220545</v>
+      </c>
+      <c r="N2">
         <v>12.307962129356422</v>
       </c>
-      <c r="C2">
+      <c r="O2">
         <v>11.27668584925304</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>13.370581171838653</v>
+      </c>
+      <c r="Q2">
+        <v>12.189105204749829</v>
+      </c>
+      <c r="R2">
+        <v>10.937389317996539</v>
+      </c>
+      <c r="T2">
+        <v>11.964822007122621</v>
+      </c>
+      <c r="U2">
+        <v>14.316489236365049</v>
+      </c>
+      <c r="V2">
+        <v>10.213578503991876</v>
+      </c>
+      <c r="W2">
+        <v>8.7039434569730059</v>
+      </c>
+      <c r="X2">
+        <v>13.568151049124266</v>
+      </c>
+      <c r="Y2">
+        <v>14.760398114975576</v>
+      </c>
+      <c r="Z2">
+        <v>14.375803179158428</v>
+      </c>
+      <c r="AA2">
+        <v>14.460432535801226</v>
+      </c>
+      <c r="AB2">
+        <v>15.812359975160687</v>
+      </c>
+      <c r="AC2">
+        <v>12.666804691908181</v>
+      </c>
+      <c r="AD2">
+        <v>16.112945081685769</v>
+      </c>
+      <c r="AE2">
+        <v>12.014900575420464</v>
+      </c>
+      <c r="AF2">
+        <v>13.267384298903091</v>
+      </c>
+      <c r="AG2">
+        <v>11.135246439217992</v>
+      </c>
+      <c r="AH2">
+        <v>11.987779105589988</v>
+      </c>
+      <c r="AI2">
+        <v>16.533330361466927</v>
+      </c>
+      <c r="AJ2">
+        <v>11.719440023043092</v>
+      </c>
+      <c r="AK2">
+        <v>11.934324941959424</v>
+      </c>
+      <c r="AL2">
+        <v>14.390048004826749</v>
+      </c>
+      <c r="AM2">
         <v>12.182262788502646</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>12.296540643036979</v>
       </c>
-      <c r="F2">
-        <v>10.528271002845521</v>
-      </c>
-      <c r="G2">
-        <v>13.603799580100389</v>
-      </c>
-      <c r="H2">
-        <v>10.385655018435905</v>
-      </c>
-      <c r="I2">
-        <v>12.488885839155556</v>
-      </c>
-      <c r="J2">
-        <v>15.042381590841996</v>
-      </c>
-      <c r="K2">
-        <v>12.023294570959441</v>
-      </c>
-      <c r="L2">
-        <v>11.081158776241786</v>
-      </c>
-      <c r="M2">
-        <v>14.940421518204467</v>
-      </c>
-      <c r="N2">
-        <v>12.307962130718495</v>
-      </c>
-      <c r="O2">
-        <v>11.27668585323741</v>
-      </c>
-      <c r="P2">
-        <v>13.370581171292606</v>
-      </c>
-      <c r="Q2">
-        <v>12.189105205807859</v>
-      </c>
-      <c r="R2">
-        <v>10.937389322123231</v>
-      </c>
-      <c r="T2">
-        <v>11.964822008481912</v>
-      </c>
-      <c r="U2">
-        <v>14.316489241356129</v>
-      </c>
-      <c r="V2">
-        <v>10.213578508392992</v>
-      </c>
-      <c r="W2">
-        <v>8.7039434587518638</v>
-      </c>
-      <c r="X2">
-        <v>13.568151049461207</v>
-      </c>
-      <c r="Y2">
-        <v>14.760398119036285</v>
-      </c>
-      <c r="Z2">
-        <v>14.375803184019228</v>
-      </c>
-      <c r="AA2">
-        <v>14.460432539432864</v>
-      </c>
-      <c r="AB2">
-        <v>15.812359981668159</v>
-      </c>
-      <c r="AC2">
-        <v>12.666804694960279</v>
-      </c>
-      <c r="AD2">
-        <v>16.112945089564654</v>
-      </c>
-      <c r="AE2">
-        <v>12.014900579035352</v>
-      </c>
-      <c r="AF2">
-        <v>13.267384302042709</v>
-      </c>
-      <c r="AG2">
-        <v>11.135246442686613</v>
-      </c>
-      <c r="AH2">
-        <v>11.98777910887984</v>
-      </c>
-      <c r="AI2">
-        <v>16.533330367154818</v>
-      </c>
-      <c r="AJ2">
-        <v>11.719440025840559</v>
-      </c>
-      <c r="AK2">
-        <v>11.934324944954671</v>
-      </c>
-      <c r="AL2">
-        <v>14.390048007658809</v>
-      </c>
-      <c r="AM2">
-        <v>12.182262791015573</v>
-      </c>
-      <c r="AN2">
-        <v>12.296540648264715</v>
-      </c>
       <c r="AO2">
-        <v>14.248612766930629</v>
+        <v>14.248612764906301</v>
       </c>
       <c r="AP2">
-        <v>13.304653590353988</v>
+        <v>13.30465358674873</v>
       </c>
       <c r="AQ2">
-        <v>11.148224684648179</v>
+        <v>11.148224681782706</v>
       </c>
       <c r="AR2">
-        <v>16.689327715174549</v>
+        <v>16.689327713182433</v>
       </c>
       <c r="AS2">
-        <v>12.766718120190443</v>
+        <v>12.766718116044123</v>
       </c>
       <c r="AT2">
-        <v>16.349212323266091</v>
+        <v>16.349212318982524</v>
       </c>
       <c r="AU2">
-        <v>10.126202160160055</v>
+        <v>10.126202157482487</v>
       </c>
       <c r="AV2">
-        <v>10.161429605423681</v>
+        <v>10.161429600082462</v>
       </c>
       <c r="AW2">
-        <v>13.000673699232667</v>
+        <v>13.000673694653688</v>
       </c>
       <c r="AX2">
-        <v>16.002547904653337</v>
+        <v>16.002547898888984</v>
       </c>
       <c r="AY2">
-        <v>15.658898594814854</v>
+        <v>15.658898590216236</v>
       </c>
     </row>
     <row r="3" spans="1:51" x14ac:dyDescent="0.3">
@@ -665,154 +665,154 @@
         <v>2</v>
       </c>
       <c r="B3">
+        <v>13.784197584660243</v>
+      </c>
+      <c r="C3">
+        <v>12.895955934322803</v>
+      </c>
+      <c r="D3">
+        <v>15.04712636546977</v>
+      </c>
+      <c r="E3">
+        <v>16.055157495483595</v>
+      </c>
+      <c r="F3">
+        <v>9.8970302419636162</v>
+      </c>
+      <c r="G3">
+        <v>13.709010080971797</v>
+      </c>
+      <c r="H3">
+        <v>9.8596440865734873</v>
+      </c>
+      <c r="I3">
+        <v>12.471057504762557</v>
+      </c>
+      <c r="J3">
+        <v>15.889689162397765</v>
+      </c>
+      <c r="K3">
+        <v>14.010542470892204</v>
+      </c>
+      <c r="L3">
+        <v>12.034098181432022</v>
+      </c>
+      <c r="M3">
+        <v>13.09216557297524</v>
+      </c>
+      <c r="N3">
         <v>12.405401488311036</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>10.67466473685695</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>13.472374024533773</v>
+      </c>
+      <c r="Q3">
+        <v>10.640181724210528</v>
+      </c>
+      <c r="R3">
+        <v>9.050227224310861</v>
+      </c>
+      <c r="S3">
+        <v>14.839695534691181</v>
+      </c>
+      <c r="T3">
+        <v>12.748559456872185</v>
+      </c>
+      <c r="U3">
+        <v>15.259103047539991</v>
+      </c>
+      <c r="V3">
+        <v>11.270430739722565</v>
+      </c>
+      <c r="W3">
+        <v>10.179470693816654</v>
+      </c>
+      <c r="X3">
+        <v>12.183975710250774</v>
+      </c>
+      <c r="Y3">
+        <v>17.037616938322383</v>
+      </c>
+      <c r="Z3">
+        <v>15.421240672340847</v>
+      </c>
+      <c r="AA3">
+        <v>14.221666490623392</v>
+      </c>
+      <c r="AB3">
+        <v>14.664271909427038</v>
+      </c>
+      <c r="AC3">
+        <v>15.101182541706912</v>
+      </c>
+      <c r="AD3">
+        <v>16.646661665495682</v>
+      </c>
+      <c r="AE3">
+        <v>12.179105111916904</v>
+      </c>
+      <c r="AF3">
+        <v>14.223597364997897</v>
+      </c>
+      <c r="AG3">
+        <v>11.460631832293121</v>
+      </c>
+      <c r="AH3">
+        <v>13.698884024533292</v>
+      </c>
+      <c r="AI3">
+        <v>15.341198214505884</v>
+      </c>
+      <c r="AJ3">
+        <v>12.905351100845133</v>
+      </c>
+      <c r="AK3">
+        <v>13.561735922649371</v>
+      </c>
+      <c r="AL3">
+        <v>13.904572535677978</v>
+      </c>
+      <c r="AM3">
         <v>13.123817133311299</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>10.630007628015582</v>
       </c>
-      <c r="F3">
-        <v>9.8970302451594439</v>
-      </c>
-      <c r="G3">
-        <v>13.709010083003564</v>
-      </c>
-      <c r="H3">
-        <v>9.8596440884444636</v>
-      </c>
-      <c r="I3">
-        <v>12.471057506434416</v>
-      </c>
-      <c r="J3">
-        <v>15.889689163638248</v>
-      </c>
-      <c r="K3">
-        <v>14.01054247295939</v>
-      </c>
-      <c r="L3">
-        <v>12.034098183725085</v>
-      </c>
-      <c r="M3">
-        <v>13.09219844733453</v>
-      </c>
-      <c r="N3">
-        <v>12.405401491209576</v>
-      </c>
-      <c r="O3">
-        <v>10.674664739529881</v>
-      </c>
-      <c r="P3">
-        <v>13.472374030864625</v>
-      </c>
-      <c r="Q3">
-        <v>10.640181725264048</v>
-      </c>
-      <c r="R3">
-        <v>9.0502272265669124</v>
-      </c>
-      <c r="S3">
-        <v>14.839695535497569</v>
-      </c>
-      <c r="T3">
-        <v>12.748559459843719</v>
-      </c>
-      <c r="U3">
-        <v>15.259103050483318</v>
-      </c>
-      <c r="V3">
-        <v>11.270430744001796</v>
-      </c>
-      <c r="W3">
-        <v>10.179470695956462</v>
-      </c>
-      <c r="X3">
-        <v>12.183975712757027</v>
-      </c>
-      <c r="Y3">
-        <v>17.037616944335308</v>
-      </c>
-      <c r="Z3">
-        <v>15.421240677723272</v>
-      </c>
-      <c r="AA3">
-        <v>14.221666494575688</v>
-      </c>
-      <c r="AB3">
-        <v>14.664271914964685</v>
-      </c>
-      <c r="AC3">
-        <v>15.10118254470598</v>
-      </c>
-      <c r="AD3">
-        <v>16.64666166975638</v>
-      </c>
-      <c r="AE3">
-        <v>12.179105113778736</v>
-      </c>
-      <c r="AF3">
-        <v>14.223597369058821</v>
-      </c>
-      <c r="AG3">
-        <v>11.460631834687485</v>
-      </c>
-      <c r="AH3">
-        <v>13.698884027417623</v>
-      </c>
-      <c r="AI3">
-        <v>15.341198220596771</v>
-      </c>
-      <c r="AJ3">
-        <v>12.905351102571954</v>
-      </c>
-      <c r="AK3">
-        <v>13.561735927727698</v>
-      </c>
-      <c r="AL3">
-        <v>13.904572540725876</v>
-      </c>
-      <c r="AM3">
-        <v>13.123817138888233</v>
-      </c>
-      <c r="AN3">
-        <v>10.630007631385119</v>
-      </c>
       <c r="AO3">
-        <v>14.683423202966015</v>
+        <v>14.683423193260417</v>
       </c>
       <c r="AP3">
-        <v>10.803339023163888</v>
+        <v>10.80333901958265</v>
       </c>
       <c r="AQ3">
-        <v>10.856173604834517</v>
+        <v>10.856173603842553</v>
       </c>
       <c r="AR3">
-        <v>17.211861514112066</v>
+        <v>17.211861511287406</v>
       </c>
       <c r="AS3">
-        <v>11.874937008807931</v>
+        <v>11.874937005951807</v>
       </c>
       <c r="AT3">
-        <v>15.502217799088791</v>
+        <v>15.502217792380801</v>
       </c>
       <c r="AU3">
-        <v>10.825989435079778</v>
+        <v>10.825989438578144</v>
       </c>
       <c r="AV3">
-        <v>10.258976616793346</v>
+        <v>10.25897661257795</v>
       </c>
       <c r="AW3">
-        <v>12.925312777810872</v>
+        <v>12.925312773612168</v>
       </c>
       <c r="AX3">
-        <v>14.448115128931066</v>
+        <v>14.448115125150998</v>
       </c>
       <c r="AY3">
-        <v>17.401361826685488</v>
+        <v>17.401361819903006</v>
       </c>
     </row>
   </sheetData>
